--- a/classfiers/chain/multinomialNB/nearmiss/chain-multinomialNB-nearmiss-results.xlsx
+++ b/classfiers/chain/multinomialNB/nearmiss/chain-multinomialNB-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.75</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C2" t="n">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8424242424242423</v>
       </c>
       <c r="E2" t="n">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.7596153846153846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3</v>
+        <v>0.7596153846153846</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.7596153846153846</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8792270531400967</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.5608974358974359</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.5608974358974358</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.7199999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.7211538461538461</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.55</v>
+        <v>0.7296078431372549</v>
       </c>
       <c r="C7" t="n">
-        <v>0.775</v>
+        <v>0.7544871794871795</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6980952380952381</v>
+        <v>0.7522533360359447</v>
       </c>
       <c r="E7" t="n">
-        <v>0.775</v>
+        <v>0.7544871794871795</v>
       </c>
     </row>
   </sheetData>
